--- a/Documentation/ProjectDocumentation/Website_template.xlsx
+++ b/Documentation/ProjectDocumentation/Website_template.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\3dscanner\Documentation\ProjectDocumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\brain2machineinterface\Documentation\ProjectDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F6095D-4BD7-4E69-B85F-CC94BF47C35F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="19320" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="12" windowWidth="19320" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -128,27 +127,30 @@
     <t>FH Hagenberg</t>
   </si>
   <si>
-    <t>3D-Scanner</t>
-  </si>
-  <si>
-    <t>Wintersemester 2017/18</t>
-  </si>
-  <si>
-    <t>Das 3D-Scanner Schienensystem ermöglicht es, in kurzer Zeit Köpfe von Personen sowie Objekte mithilfe eines 3D-Hand-Scanners in hoher Qualität einzuscannen. Scannen per Hand oder mit Drehsessel stellten sich als zu fehleranfällig und ungenau heraus, weswegen der Bedarf für dieses Projekt entstand. Ziel ist es, mit geringstem Kostenaufwand 3D-Modelle zu scannen, welche anschließend für den 3D-Druck oder Weiterverarbeitung mit 3D-Software verwendet werden.</t>
-  </si>
-  <si>
-    <t>DI Dr. Erik Sonnleitner / Breitenfellner Marcel, BSc</t>
-  </si>
-  <si>
-    <t>Das Ziel dieses Projekts ist, mithilfe eines speziellen 3D Hand-Scanners auf einer Vorrichtung Köpfe von Personen einfach, in kurzer Zeit in optimaler Qualität einzuscannen. Der Bau dieser Vorrichtung wurde von einem Professor der FH Hagenberg (Prof. Dr. Sonnleitner) in Auftrag gegeben. Das Kernkriterium ist, dass beim Scan-Prozess der 3D Hand-Scanner rund um eine Person bewegt wird, um sie als 3D Modell zu erfassen. Das resultierende 3D Modell wird an-schließend zur Weiterbearbeitung sowie zum 3D Druck von Büsten verwendet.
-Als 3D Hand-Scanner dient ein Modell des Unternehmens „Sense“. Ursprünglich wurden Perso-nen (Köpfe) eingescannt, indem diese sich auf einen Drehsessel setzten und mit den Beinen weiterdrehten, während eine weitere Person den Sense Scanner auf diese Person richtete. Die-se Vorgehensweise stellte sich jedoch als sehr fehleranfällig und aufwändig dar. Weiters erwies sich das Scannen von kleinen und mittelgroßen Objekten auch mit ruhiger Hand als sehr schwierig, wodurch damit kaum ein Scan gelang. Daraus entstand schließlich die Notwendigkeit nach einer Vorrichtung für den Hand-Scanner, welche mit möglichst geringen Kosten für den Erbau bestmögliche Ergebnisse liefern soll.
-Zusammenfassend ermöglicht damit das Projekt 3D Scanner den Scan von Personen sowie von Objekten mit geringem Aufwand in hoher Qualität, was eine Grundlage für die Weiterverar-beitung mit 3D Programmen und den 3D Druck bietet.</t>
-  </si>
-  <si>
-    <t>sense_scanner_512.png,IMG_20180130_140326.jpg</t>
-  </si>
-  <si>
     <t>Boris Fuchs, Paul Schmutz</t>
+  </si>
+  <si>
+    <t>Brain2MachineInterface_1_mindstorms.jpg, Brain2MachineInterface_2_eeg_smt.jpg</t>
+  </si>
+  <si>
+    <t>Sommersemester 2018</t>
+  </si>
+  <si>
+    <t>Brain2Machine Interface</t>
+  </si>
+  <si>
+    <t>Mittels EEG-Messung ist es möglich, verschiedene Gesten und Gehirntätigkeiten zu detektieren. Im Rahmen des Projektes werden diese Signale mithilfe des Olimex Open EEG-SMT in gewisse Befehle umgewandelt, um einen Lego Mindstorms Greifarm zu steuern.</t>
+  </si>
+  <si>
+    <t>DI Dr. Erik Sonnleitner</t>
+  </si>
+  <si>
+    <t>Das Projekt Brain2Machine Interface handelt davon, elektrische Muskelreize am Kopf zu messen und digital zu verarbeiten, um damit eine Applikation anzusteuern. Unterschiedliche Gesten und Bewegungen (Augenbewegung, Lachen, Zähne zusammenbeißen) führen zu unterscheidbaren Spannungsverläufen, welche der jeweiligen Geste des Benutzers zugeordnet werden können.
+Die Messung der Ströme erfolgt mit einem Elektroenzephalographen (EEG). In diesem Semesterprojekt wurde hauptsächlich ein OpenEEG Gerät von Olimex mit 5 Elektroden verwendet und mit einer Ausführung von Emotiv Insight mit ebenso 5 Elektroden verglichen (beide Geräte wurden durch die FH Hagenberg bereitgestellt). Da die geringe Anzahl an Elektroden für sinnvolle, unterscheidbare Messungen von Gehirnströmen oder Gedanken nicht ausreichend ist, liegt der Fokus auf messbare Muskelreize im Kopfbereich.
+Nachdem das Olimex EEG Rohdaten laut Spezifikation der OpenEEG Community (http://openeeg.sourceforge.net/doc/) liefert, wurden diese im Projekt näher untersucht und ausgewertet. Durch die offene Schnittstelle können die Daten in Realtime in einer Java-Applikation ausgelesen und verwertet werden. Das Projektteam nutzt dies für die Steuerung eines Lego Mindstorms Greifarms mit folgenden Gesten:
+Augen nach links bewegen =&gt; Greifarm nach links drehen
+Augen nach rechts bewegen =&gt; Greifarm nach rechts drehen
+Zähne zusammenbeißen =&gt; Greifarm nach unten senken und Objekt greifen bzw. wieder freigeben</t>
   </si>
 </sst>
 </file>
@@ -647,31 +649,31 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="39.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.44140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="39.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -733,48 +735,48 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
@@ -793,7 +795,7 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +816,7 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -835,7 +837,7 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,7 +858,7 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -877,7 +879,7 @@
       <c r="N10" s="13"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -898,7 +900,7 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -919,7 +921,7 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -940,7 +942,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
@@ -977,32 +979,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>